--- a/Project Plan and Milestones/DBSE Project Plan.xlsx
+++ b/Project Plan and Milestones/DBSE Project Plan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Everyone</t>
   </si>
   <si>
-    <t>Data Extraction and Classification</t>
+    <t>Data Extraction and Reverification</t>
   </si>
   <si>
     <t>Obtain Research Paper Template from Sajad</t>
@@ -121,12 +121,15 @@
     <t xml:space="preserve">Everyone </t>
   </si>
   <si>
-    <t>Write Introduction</t>
+    <t>Write Introduction, abstract</t>
   </si>
   <si>
     <t>By Poll</t>
   </si>
   <si>
+    <t>Shifin</t>
+  </si>
+  <si>
     <t>Background and Literature Review</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t xml:space="preserve">Milestone 3 </t>
   </si>
   <si>
-    <t xml:space="preserve">Complete reading all the research papers </t>
+    <t>Complete reading all the research papers and data reverification</t>
   </si>
   <si>
     <t xml:space="preserve">Everyonne </t>
@@ -379,11 +382,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="381930791"/>
-        <c:axId val="98697911"/>
+        <c:axId val="647749151"/>
+        <c:axId val="291783063"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="381930791"/>
+        <c:axId val="647749151"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -435,10 +438,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98697911"/>
+        <c:crossAx val="291783063"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98697911"/>
+        <c:axId val="291783063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45863.0"/>
@@ -514,7 +517,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381930791"/>
+        <c:crossAx val="647749151"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -971,7 +974,7 @@
         <v>45793.0</v>
       </c>
       <c r="M6" s="9">
-        <v>45821.0</v>
+        <v>45826.0</v>
       </c>
       <c r="N6" s="10">
         <v>28.0</v>
@@ -993,6 +996,9 @@
       <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="11">
+        <v>1.0</v>
+      </c>
       <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1000,10 +1006,10 @@
         <v>29</v>
       </c>
       <c r="L7" s="9">
-        <v>45815.0</v>
+        <v>45827.0</v>
       </c>
       <c r="M7" s="9">
-        <v>45828.0</v>
+        <v>45838.0</v>
       </c>
       <c r="N7" s="10">
         <v>14.0</v>
@@ -1035,10 +1041,10 @@
         <v>31</v>
       </c>
       <c r="L8" s="9">
-        <v>45815.0</v>
+        <v>45827.0</v>
       </c>
       <c r="M8" s="9">
-        <v>45828.0</v>
+        <v>45838.0</v>
       </c>
       <c r="N8" s="10">
         <v>14.0</v>
@@ -1055,7 +1061,7 @@
         <v>45793.0</v>
       </c>
       <c r="M9" s="9">
-        <v>45856.0</v>
+        <v>45879.0</v>
       </c>
       <c r="N9" s="10">
         <v>63.0</v>
@@ -1094,6 +1100,9 @@
       <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="F11" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>45800.0</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>37</v>
@@ -1123,7 +1132,7 @@
         <v>45800.0</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>37</v>
@@ -1140,7 +1149,7 @@
         <v>45804.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>37</v>
@@ -1158,7 +1167,7 @@
         <v>45805.0</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>37</v>
@@ -1179,16 +1188,16 @@
         <v>45807.0</v>
       </c>
       <c r="B17" s="9">
-        <v>45821.0</v>
+        <v>45826.0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>16</v>
@@ -1197,13 +1206,13 @@
     </row>
     <row r="18">
       <c r="A18" s="9">
-        <v>45822.0</v>
+        <v>45827.0</v>
       </c>
       <c r="B18" s="9">
-        <v>45828.0</v>
+        <v>45838.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>37</v>
@@ -1214,13 +1223,13 @@
     </row>
     <row r="19">
       <c r="A19" s="9">
-        <v>45828.0</v>
+        <v>45838.0</v>
       </c>
       <c r="B19" s="9">
-        <v>45835.0</v>
+        <v>45839.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>37</v>
@@ -1237,7 +1246,7 @@
         <v>45835.0</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>37</v>
@@ -1254,7 +1263,7 @@
         <v>45840.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>37</v>
@@ -1271,7 +1280,7 @@
         <v>45841.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>37</v>
@@ -1293,10 +1302,10 @@
         <v>45849.0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>37</v>
@@ -1313,7 +1322,7 @@
         <v>45856.0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>37</v>
@@ -1330,7 +1339,7 @@
         <v>45860.0</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>37</v>
@@ -1347,7 +1356,7 @@
         <v>45863.0</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>37</v>
